--- a/src/main/java/testing/excel/hw1.xlsx
+++ b/src/main/java/testing/excel/hw1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freddyhe/Desktop/soltware_testing/src/main/java/testing/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zxrsheep/Documents/All/testing/src/main/java/testing/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AF4B79-D0D4-C340-9DA8-2AA80E75AC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAB85C7-6E6C-BF48-A1E0-EA031AE6F3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="500" windowWidth="21020" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="500" windowWidth="21020" windowHeight="16020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>Numbers 工作表名称</t>
   </si>
@@ -37,13 +37,6 @@
   </si>
   <si>
     <t>工作表 2</t>
-  </si>
-  <si>
-    <t>等价类</t>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -339,11 +332,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ssss</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sssss</t>
+    <t>等价类</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -620,43 +609,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="13"/>
@@ -694,19 +646,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="13"/>
@@ -725,7 +664,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -822,52 +761,25 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2047,11 +1959,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="50" customHeight="1">
-      <c r="B3" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="B3" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="4" spans="2:4" ht="65" customHeight="1">
       <c r="B4" s="19"/>
@@ -2077,10 +1989,10 @@
     <row r="10" spans="2:4" ht="17">
       <c r="B10" s="3"/>
       <c r="C10" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="17">
@@ -2093,10 +2005,10 @@
     <row r="12" spans="2:4" ht="17">
       <c r="B12" s="3"/>
       <c r="C12" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2114,438 +2026,360 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="16.33203125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="16.33203125" style="4"/>
+    <col min="1" max="6" width="16.33203125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="16.33203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1">
       <c r="A1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" ht="22.5" customHeight="1">
+      <c r="D1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" s="7">
         <v>20</v>
       </c>
       <c r="B2" s="8">
         <v>21</v>
       </c>
-      <c r="C2" s="32">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="C2" s="7">
         <v>22</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="22.25" customHeight="1">
+      <c r="D2" s="32"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.25" customHeight="1">
       <c r="A3" s="24">
         <v>18</v>
       </c>
       <c r="B3" s="25">
         <v>19</v>
       </c>
-      <c r="C3" s="33">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D3" s="24">
+      <c r="C3" s="24">
         <v>33</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="22.25" customHeight="1">
+      <c r="D3" s="33"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.25" customHeight="1">
       <c r="A4" s="27">
         <v>17</v>
       </c>
       <c r="B4" s="27">
         <v>12</v>
       </c>
-      <c r="C4" s="34">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D4" s="27">
+      <c r="C4" s="27">
         <v>12</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="30"/>
-    </row>
-    <row r="5" spans="1:6" ht="22.25" customHeight="1">
+      <c r="D4" s="34"/>
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.25" customHeight="1">
       <c r="A5" s="26">
         <v>15</v>
       </c>
       <c r="B5" s="26">
         <v>15</v>
       </c>
-      <c r="C5" s="35">
-        <v>0</v>
-      </c>
-      <c r="D5" s="26">
+      <c r="C5" s="26">
         <v>29</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="30"/>
-    </row>
-    <row r="6" spans="1:6" ht="23.75" customHeight="1">
+      <c r="D5" s="35"/>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="1:5" ht="23.75" customHeight="1">
       <c r="A6" s="26">
         <v>3</v>
       </c>
       <c r="B6" s="26">
         <v>4</v>
       </c>
-      <c r="C6" s="35">
-        <v>0</v>
-      </c>
-      <c r="D6" s="26">
+      <c r="C6" s="26">
         <v>5</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="30"/>
-    </row>
-    <row r="7" spans="1:6" ht="23.75" customHeight="1">
+      <c r="D6" s="35"/>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="1:5" ht="23.75" customHeight="1">
       <c r="A7" s="26">
         <v>0</v>
       </c>
       <c r="B7" s="26">
         <v>4</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="26">
         <v>0</v>
       </c>
-      <c r="D7" s="26">
-        <v>0</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="30"/>
-    </row>
-    <row r="8" spans="1:6" ht="22.25" customHeight="1">
+      <c r="D7" s="35"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.25" customHeight="1">
       <c r="A8" s="26">
         <v>0</v>
       </c>
       <c r="B8" s="26">
         <v>0</v>
       </c>
-      <c r="C8" s="34">
-        <v>0.01</v>
-      </c>
-      <c r="D8" s="26">
+      <c r="C8" s="26">
         <v>0</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="30"/>
-    </row>
-    <row r="9" spans="1:6" ht="22.25" customHeight="1">
+      <c r="D8" s="35"/>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="1:5" ht="22.25" customHeight="1">
       <c r="A9" s="26">
         <v>0</v>
       </c>
       <c r="B9" s="26">
         <v>1</v>
       </c>
-      <c r="C9" s="34">
-        <v>0.01</v>
-      </c>
-      <c r="D9" s="26">
+      <c r="C9" s="26">
         <v>0</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="30"/>
-    </row>
-    <row r="10" spans="1:6" ht="22.25" customHeight="1">
+      <c r="D9" s="35"/>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.25" customHeight="1">
       <c r="A10" s="26">
         <v>0</v>
       </c>
       <c r="B10" s="26">
         <v>11</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="26">
         <v>0</v>
       </c>
-      <c r="D10" s="26">
-        <v>0</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="30"/>
-    </row>
-    <row r="11" spans="1:6" ht="23.75" customHeight="1">
+      <c r="D10" s="35"/>
+      <c r="E10" s="30"/>
+    </row>
+    <row r="11" spans="1:5" ht="23.75" customHeight="1">
       <c r="A11" s="26">
         <v>0</v>
       </c>
       <c r="B11" s="26">
         <v>10</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="26">
         <v>0</v>
       </c>
-      <c r="D11" s="26">
-        <v>0</v>
-      </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="30"/>
-    </row>
-    <row r="12" spans="1:6" ht="23.75" customHeight="1">
+      <c r="D11" s="35"/>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" ht="23.75" customHeight="1">
       <c r="A12" s="26">
         <v>20</v>
       </c>
       <c r="B12" s="26">
         <v>4</v>
       </c>
-      <c r="C12" s="35">
-        <v>0</v>
-      </c>
-      <c r="D12" s="26">
+      <c r="C12" s="26">
         <v>20</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" spans="1:6" ht="22.25" customHeight="1">
+      <c r="D12" s="35"/>
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" spans="1:5" ht="22.25" customHeight="1">
       <c r="A13" s="26">
         <v>20</v>
       </c>
       <c r="B13" s="26">
         <v>0</v>
       </c>
-      <c r="C13" s="34">
-        <v>0.01</v>
-      </c>
-      <c r="D13" s="26">
+      <c r="C13" s="26">
         <v>20</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14" spans="1:6" ht="22.25" customHeight="1">
+      <c r="D13" s="35"/>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" ht="22.25" customHeight="1">
       <c r="A14" s="26">
         <v>20</v>
       </c>
       <c r="B14" s="26">
         <v>1</v>
       </c>
-      <c r="C14" s="34">
-        <v>0.01</v>
-      </c>
-      <c r="D14" s="26">
+      <c r="C14" s="26">
         <v>20</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" spans="1:6" ht="22.25" customHeight="1">
+      <c r="D14" s="35"/>
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" spans="1:5" ht="22.25" customHeight="1">
       <c r="A15" s="26">
         <v>20</v>
       </c>
       <c r="B15" s="26">
         <v>11</v>
       </c>
-      <c r="C15" s="35">
-        <v>0</v>
-      </c>
-      <c r="D15" s="26">
+      <c r="C15" s="26">
         <v>20</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" spans="1:6" ht="23.75" customHeight="1">
+      <c r="D15" s="35"/>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" ht="23.75" customHeight="1">
       <c r="A16" s="26">
         <v>20</v>
       </c>
       <c r="B16" s="26">
         <v>10</v>
       </c>
-      <c r="C16" s="36">
-        <v>5</v>
-      </c>
-      <c r="D16" s="26">
+      <c r="C16" s="26">
         <v>20</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="30"/>
-    </row>
-    <row r="17" spans="1:6" ht="21.25" customHeight="1">
+      <c r="D16" s="35"/>
+      <c r="E16" s="30"/>
+    </row>
+    <row r="17" spans="1:5" ht="21.25" customHeight="1">
       <c r="A17" s="28">
         <v>44640</v>
       </c>
       <c r="B17" s="26">
         <v>4</v>
       </c>
-      <c r="C17" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="D17" s="28">
+      <c r="C17" s="28">
         <v>44640</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
+      <c r="D17" s="35"/>
+      <c r="E17" s="30"/>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="28">
         <v>44640</v>
       </c>
       <c r="B18" s="26">
         <v>0</v>
       </c>
-      <c r="C18" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="D18" s="28">
+      <c r="C18" s="28">
         <v>44640</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="30"/>
-    </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
+      <c r="D18" s="35"/>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="28">
         <v>44640</v>
       </c>
       <c r="B19" s="26">
         <v>1</v>
       </c>
-      <c r="C19" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="D19" s="28">
+      <c r="C19" s="28">
         <v>44640</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="30"/>
-    </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
+      <c r="D19" s="35"/>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="28">
         <v>44640</v>
       </c>
       <c r="B20" s="26">
         <v>11</v>
       </c>
-      <c r="C20" s="35">
-        <v>0</v>
-      </c>
-      <c r="D20" s="28">
+      <c r="C20" s="28">
         <v>44640</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="30"/>
-    </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
+      <c r="D20" s="35"/>
+      <c r="E20" s="30"/>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="28">
         <v>44640</v>
       </c>
       <c r="B21" s="26">
         <v>10</v>
       </c>
-      <c r="C21" s="35">
-        <v>0</v>
-      </c>
-      <c r="D21" s="28">
+      <c r="C21" s="28">
         <v>44640</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="30"/>
-    </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
+      <c r="D21" s="35"/>
+      <c r="E21" s="30"/>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="A22" s="28">
         <v>44000</v>
       </c>
       <c r="B22" s="26">
         <v>4</v>
       </c>
-      <c r="C22" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="D22" s="28">
+      <c r="C22" s="28">
         <v>44000</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="30"/>
-    </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1">
+      <c r="D22" s="35"/>
+      <c r="E22" s="30"/>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="A23" s="26">
         <v>44000</v>
       </c>
       <c r="B23" s="26">
         <v>0</v>
       </c>
-      <c r="C23" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="D23" s="26">
+      <c r="C23" s="26">
         <v>44000</v>
       </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1">
+      <c r="D23" s="35"/>
+      <c r="E23" s="30"/>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="A24" s="28">
         <v>44000</v>
       </c>
       <c r="B24" s="26">
         <v>1</v>
       </c>
-      <c r="C24" s="34">
-        <v>0.03</v>
-      </c>
-      <c r="D24" s="28">
+      <c r="C24" s="28">
         <v>44000</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="30"/>
-    </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1">
+      <c r="D24" s="35"/>
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="A25" s="27">
         <v>44000</v>
       </c>
       <c r="B25" s="27">
         <v>11</v>
       </c>
-      <c r="C25" s="37">
-        <v>0</v>
-      </c>
-      <c r="D25" s="27">
+      <c r="C25" s="27">
         <v>44000</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1">
+      <c r="D25" s="35"/>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="A26" s="30">
         <v>44000</v>
       </c>
       <c r="B26" s="27">
         <v>10</v>
       </c>
-      <c r="C26" s="37">
-        <v>0</v>
-      </c>
-      <c r="D26" s="30">
+      <c r="C26" s="30">
         <v>44000</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="30"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2562,850 +2396,712 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="16.33203125" style="13" customWidth="1"/>
-    <col min="4" max="6" width="16.33203125" style="13"/>
-    <col min="8" max="16384" width="16.33203125" style="13"/>
+    <col min="1" max="2" width="16.33203125" style="13" customWidth="1"/>
+    <col min="3" max="5" width="16.33203125" style="13"/>
+    <col min="7" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1">
       <c r="A1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>45</v>
+      <c r="D1" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="22.5" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" s="7">
         <v>20</v>
       </c>
       <c r="B2" s="8">
         <v>21</v>
       </c>
-      <c r="C2" s="32">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="C2" s="7">
         <v>22</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="22.25" customHeight="1">
+      <c r="D2" s="37"/>
+      <c r="E2" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="22.25" customHeight="1">
       <c r="A3" s="24">
         <v>18</v>
       </c>
       <c r="B3" s="25">
         <v>19</v>
       </c>
-      <c r="C3" s="33">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D3" s="24">
+      <c r="C3" s="24">
         <v>33</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="22.25" customHeight="1">
+      <c r="D3" s="38"/>
+      <c r="E3" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.25" customHeight="1">
       <c r="A4" s="27">
         <v>17</v>
       </c>
       <c r="B4" s="27">
         <v>12</v>
       </c>
-      <c r="C4" s="34">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D4" s="27">
+      <c r="C4" s="27">
         <v>12</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="22.25" customHeight="1">
+      <c r="D4" s="38"/>
+      <c r="E4" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.25" customHeight="1">
       <c r="A5" s="26">
         <v>15</v>
       </c>
       <c r="B5" s="26">
         <v>15</v>
       </c>
-      <c r="C5" s="35">
-        <v>0</v>
-      </c>
-      <c r="D5" s="26">
+      <c r="C5" s="26">
         <v>29</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="22.25" customHeight="1">
+      <c r="D5" s="38"/>
+      <c r="E5" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22.25" customHeight="1">
       <c r="A6" s="26">
         <v>3</v>
       </c>
       <c r="B6" s="26">
         <v>4</v>
       </c>
-      <c r="C6" s="35">
-        <v>0</v>
-      </c>
-      <c r="D6" s="26">
+      <c r="C6" s="26">
         <v>5</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="22.25" customHeight="1">
+      <c r="D6" s="38"/>
+      <c r="E6" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.25" customHeight="1">
       <c r="A7" s="10">
         <v>500000</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C7" s="10">
         <v>500000</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="22.25" customHeight="1">
+      <c r="D7" s="38"/>
+      <c r="E7" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22.25" customHeight="1">
       <c r="A8" s="10">
         <v>500000</v>
       </c>
       <c r="B8" s="11">
         <v>2</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="C8" s="10">
         <v>500000</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="D8" s="38"/>
+      <c r="E8" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="10">
         <v>500000</v>
       </c>
       <c r="B9" s="11">
         <v>3</v>
       </c>
-      <c r="C9" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="C9" s="10">
         <v>500000</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="D9" s="38"/>
+      <c r="E9" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="10">
         <v>500000</v>
       </c>
       <c r="B10" s="11">
         <v>5</v>
       </c>
-      <c r="C10" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="10">
+      <c r="C10" s="10">
         <v>500000</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="D10" s="38"/>
+      <c r="E10" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="10">
         <v>500000</v>
       </c>
       <c r="B11" s="11">
         <v>8</v>
       </c>
-      <c r="C11" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="10">
+      <c r="C11" s="10">
         <v>500000</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="D11" s="38"/>
+      <c r="E11" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="11">
         <v>20</v>
       </c>
       <c r="B12" s="11">
         <v>-3</v>
       </c>
-      <c r="C12" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="C12" s="11">
         <v>20</v>
       </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="D12" s="38"/>
+      <c r="E12" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="11">
         <v>80</v>
       </c>
       <c r="B13" s="11">
         <v>-3</v>
       </c>
-      <c r="C13" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="C13" s="11">
         <v>80</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="D13" s="38"/>
+      <c r="E13" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="11">
         <v>150</v>
       </c>
       <c r="B14" s="11">
         <v>-3</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="C14" s="11">
         <v>150</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="D14" s="38"/>
+      <c r="E14" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="11">
         <v>200</v>
       </c>
       <c r="B15" s="11">
         <v>-3</v>
       </c>
-      <c r="C15" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="C15" s="11">
         <v>200</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="D15" s="38"/>
+      <c r="E15" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="11">
         <v>500</v>
       </c>
       <c r="B16" s="11">
         <v>-3</v>
       </c>
-      <c r="C16" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="C16" s="11">
         <v>500</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1">
+      <c r="D16" s="38"/>
+      <c r="E16" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="11">
         <v>20</v>
       </c>
       <c r="B17" s="11">
         <v>12</v>
       </c>
-      <c r="C17" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="C17" s="11">
         <v>20</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
+      <c r="D17" s="38"/>
+      <c r="E17" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="11">
         <v>80</v>
       </c>
       <c r="B18" s="11">
         <v>14</v>
       </c>
-      <c r="C18" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="C18" s="11">
         <v>80</v>
       </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
+      <c r="D18" s="38"/>
+      <c r="E18" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="11">
         <v>150</v>
       </c>
       <c r="B19" s="21">
         <v>15</v>
       </c>
-      <c r="C19" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="C19" s="11">
         <v>150</v>
       </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
+      <c r="D19" s="38"/>
+      <c r="E19" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="11">
         <v>200</v>
       </c>
       <c r="B20" s="11">
         <v>12</v>
       </c>
-      <c r="C20" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="11">
+      <c r="C20" s="11">
         <v>200</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
+      <c r="D20" s="38"/>
+      <c r="E20" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="11">
         <v>500</v>
       </c>
       <c r="B21" s="11">
         <v>12</v>
       </c>
-      <c r="C21" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="C21" s="11">
         <v>500</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
+      <c r="D21" s="38"/>
+      <c r="E21" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="A22" s="22">
         <v>20</v>
       </c>
       <c r="B22" s="11">
         <v>1</v>
       </c>
-      <c r="C22" s="44">
-        <v>0.01</v>
-      </c>
-      <c r="D22" s="22">
+      <c r="C22" s="22">
         <v>20</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1">
+      <c r="D22" s="38"/>
+      <c r="E22" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="A23" s="23">
         <v>80</v>
       </c>
       <c r="B23" s="11">
         <v>1</v>
       </c>
-      <c r="C23" s="44">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D23" s="23">
+      <c r="C23" s="23">
         <v>80</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1">
+      <c r="D23" s="38"/>
+      <c r="E23" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="A24" s="23">
         <v>150</v>
       </c>
       <c r="B24" s="11">
         <v>1</v>
       </c>
-      <c r="C24" s="44">
-        <v>0.02</v>
-      </c>
-      <c r="D24" s="23">
+      <c r="C24" s="23">
         <v>150</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1">
+      <c r="D24" s="38"/>
+      <c r="E24" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="A25" s="23">
         <v>200</v>
       </c>
       <c r="B25" s="11">
         <v>1</v>
       </c>
-      <c r="C25" s="44">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D25" s="23">
+      <c r="C25" s="23">
         <v>200</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1">
+      <c r="D25" s="38"/>
+      <c r="E25" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="A26" s="23">
         <v>500</v>
       </c>
       <c r="B26" s="11">
         <v>1</v>
       </c>
-      <c r="C26" s="44">
-        <v>0.03</v>
-      </c>
-      <c r="D26" s="23">
+      <c r="C26" s="23">
         <v>500</v>
       </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="20" customHeight="1">
+      <c r="D26" s="38"/>
+      <c r="E26" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="A27" s="22">
         <v>20</v>
       </c>
       <c r="B27" s="11">
         <v>2</v>
       </c>
-      <c r="C27" s="45">
-        <v>0</v>
-      </c>
-      <c r="D27" s="22">
+      <c r="C27" s="22">
         <v>20</v>
       </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="20" customHeight="1">
+      <c r="D27" s="38"/>
+      <c r="E27" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="A28" s="23">
         <v>80</v>
       </c>
       <c r="B28" s="11">
         <v>2</v>
       </c>
-      <c r="C28" s="44">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D28" s="23">
+      <c r="C28" s="23">
         <v>80</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="20" customHeight="1">
+      <c r="D28" s="38"/>
+      <c r="E28" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="A29" s="23">
         <v>150</v>
       </c>
       <c r="B29" s="11">
         <v>2</v>
       </c>
-      <c r="C29" s="44">
-        <v>0.02</v>
-      </c>
-      <c r="D29" s="23">
+      <c r="C29" s="23">
         <v>150</v>
       </c>
-      <c r="E29" s="47"/>
-      <c r="F29" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="20" customHeight="1">
+      <c r="D29" s="38"/>
+      <c r="E29" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="A30" s="23">
         <v>200</v>
       </c>
       <c r="B30" s="11">
         <v>2</v>
       </c>
-      <c r="C30" s="44">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D30" s="23">
+      <c r="C30" s="23">
         <v>200</v>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="20" customHeight="1">
+      <c r="D30" s="38"/>
+      <c r="E30" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="A31" s="23">
         <v>500</v>
       </c>
       <c r="B31" s="11">
         <v>2</v>
       </c>
-      <c r="C31" s="44">
-        <v>0.03</v>
-      </c>
-      <c r="D31" s="23">
+      <c r="C31" s="23">
         <v>500</v>
       </c>
-      <c r="E31" s="47"/>
-      <c r="F31" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="20" customHeight="1">
+      <c r="D31" s="38"/>
+      <c r="E31" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="A32" s="22">
         <v>20</v>
       </c>
       <c r="B32" s="11">
         <v>3</v>
       </c>
-      <c r="C32" s="45">
-        <v>0</v>
-      </c>
-      <c r="D32" s="22">
+      <c r="C32" s="22">
         <v>20</v>
       </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="20" customHeight="1">
+      <c r="D32" s="38"/>
+      <c r="E32" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1">
       <c r="A33" s="23">
         <v>80</v>
       </c>
       <c r="B33" s="11">
         <v>3</v>
       </c>
-      <c r="C33" s="45">
-        <v>0</v>
-      </c>
-      <c r="D33" s="23">
+      <c r="C33" s="23">
         <v>80</v>
       </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="20" customHeight="1">
+      <c r="D33" s="38"/>
+      <c r="E33" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1">
       <c r="A34" s="23">
         <v>150</v>
       </c>
       <c r="B34" s="11">
         <v>3</v>
       </c>
-      <c r="C34" s="44">
-        <v>0.02</v>
-      </c>
-      <c r="D34" s="23">
+      <c r="C34" s="23">
         <v>150</v>
       </c>
-      <c r="E34" s="47"/>
-      <c r="F34" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1">
+      <c r="D34" s="38"/>
+      <c r="E34" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1">
       <c r="A35" s="23">
         <v>200</v>
       </c>
       <c r="B35" s="11">
         <v>3</v>
       </c>
-      <c r="C35" s="44">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D35" s="23">
+      <c r="C35" s="23">
         <v>200</v>
       </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="20" customHeight="1">
+      <c r="D35" s="38"/>
+      <c r="E35" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1">
       <c r="A36" s="23">
         <v>500</v>
       </c>
       <c r="B36" s="11">
         <v>3</v>
       </c>
-      <c r="C36" s="44">
-        <v>0.03</v>
-      </c>
-      <c r="D36" s="23">
+      <c r="C36" s="23">
         <v>500</v>
       </c>
-      <c r="E36" s="47"/>
-      <c r="F36" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="20" customHeight="1">
+      <c r="D36" s="38"/>
+      <c r="E36" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1">
       <c r="A37" s="22">
         <v>20</v>
       </c>
       <c r="B37" s="11">
         <v>4</v>
       </c>
-      <c r="C37" s="45">
-        <v>0</v>
-      </c>
-      <c r="D37" s="22">
+      <c r="C37" s="22">
         <v>20</v>
       </c>
-      <c r="E37" s="47"/>
-      <c r="F37" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="20" customHeight="1">
+      <c r="D37" s="38"/>
+      <c r="E37" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1">
       <c r="A38" s="23">
         <v>80</v>
       </c>
       <c r="B38" s="11">
         <v>5</v>
       </c>
-      <c r="C38" s="45">
-        <v>0</v>
-      </c>
-      <c r="D38" s="23">
+      <c r="C38" s="23">
         <v>80</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="20" customHeight="1">
+      <c r="D38" s="38"/>
+      <c r="E38" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1">
       <c r="A39" s="23">
         <v>150</v>
       </c>
       <c r="B39" s="11">
         <v>6</v>
       </c>
-      <c r="C39" s="45">
-        <v>0</v>
-      </c>
-      <c r="D39" s="23">
+      <c r="C39" s="23">
         <v>150</v>
       </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="20" customHeight="1">
+      <c r="D39" s="38"/>
+      <c r="E39" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1">
       <c r="A40" s="23">
         <v>200</v>
       </c>
       <c r="B40" s="11">
         <v>5</v>
       </c>
-      <c r="C40" s="44">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D40" s="23">
+      <c r="C40" s="23">
         <v>200</v>
       </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1">
+      <c r="D40" s="38"/>
+      <c r="E40" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="20" customHeight="1">
       <c r="A41" s="23">
         <v>500</v>
       </c>
       <c r="B41" s="11">
         <v>6</v>
       </c>
-      <c r="C41" s="44">
-        <v>0.03</v>
-      </c>
-      <c r="D41" s="23">
+      <c r="C41" s="23">
         <v>500</v>
       </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="20" customHeight="1">
+      <c r="D41" s="38"/>
+      <c r="E41" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20" customHeight="1">
       <c r="A42" s="22">
         <v>20</v>
       </c>
       <c r="B42" s="11">
         <v>7</v>
       </c>
-      <c r="C42" s="45">
-        <v>0</v>
-      </c>
-      <c r="D42" s="22">
+      <c r="C42" s="22">
         <v>20</v>
       </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="20" customHeight="1">
+      <c r="D42" s="38"/>
+      <c r="E42" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="20" customHeight="1">
       <c r="A43" s="23">
         <v>80</v>
       </c>
       <c r="B43" s="11">
         <v>8</v>
       </c>
-      <c r="C43" s="45">
-        <v>0</v>
-      </c>
-      <c r="D43" s="23">
+      <c r="C43" s="23">
         <v>80</v>
       </c>
-      <c r="E43" s="47"/>
-      <c r="F43" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="20" customHeight="1">
+      <c r="D43" s="38"/>
+      <c r="E43" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="20" customHeight="1">
       <c r="A44" s="23">
         <v>150</v>
       </c>
       <c r="B44" s="11">
         <v>9</v>
       </c>
-      <c r="C44" s="45">
-        <v>0</v>
-      </c>
-      <c r="D44" s="23">
+      <c r="C44" s="23">
         <v>150</v>
       </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="20" customHeight="1">
+      <c r="D44" s="38"/>
+      <c r="E44" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="20" customHeight="1">
       <c r="A45" s="23">
         <v>200</v>
       </c>
       <c r="B45" s="11">
         <v>8</v>
       </c>
-      <c r="C45" s="45">
-        <v>0</v>
-      </c>
-      <c r="D45" s="23">
+      <c r="C45" s="23">
         <v>200</v>
       </c>
-      <c r="E45" s="47"/>
-      <c r="F45" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="20" customHeight="1">
+      <c r="D45" s="38"/>
+      <c r="E45" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="20" customHeight="1">
       <c r="A46" s="23">
         <v>500</v>
       </c>
       <c r="B46" s="11">
         <v>9</v>
       </c>
-      <c r="C46" s="45">
-        <v>0</v>
-      </c>
-      <c r="D46" s="23">
+      <c r="C46" s="23">
         <v>500</v>
       </c>
-      <c r="E46" s="47"/>
-      <c r="F46" s="20" t="s">
-        <v>41</v>
+      <c r="D46" s="38"/>
+      <c r="E46" s="20" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/testing/excel/hw1.xlsx
+++ b/src/main/java/testing/excel/hw1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zxrsheep/Documents/All/testing/src/main/java/testing/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freddyhe/Desktop/软测/soltware_testing-master/src/main/java/testing/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAB85C7-6E6C-BF48-A1E0-EA031AE6F3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842DC6B1-D648-9A4C-BF3B-C7D5DA3DC35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="500" windowWidth="21020" windowHeight="16020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="54">
   <si>
     <t>Numbers 工作表名称</t>
   </si>
@@ -334,6 +334,25 @@
   <si>
     <t>等价类</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非等腰锐角三角形</t>
+  </si>
+  <si>
+    <t>非等腰钝角三角形</t>
+  </si>
+  <si>
+    <t>等腰钝角三角形</t>
+  </si>
+  <si>
+    <t>直角三角形</t>
+  </si>
+  <si>
+    <t>等腰锐角三角形</t>
   </si>
 </sst>
 </file>
@@ -2029,10 +2048,10 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2052,9 +2071,11 @@
         <v>43</v>
       </c>
       <c r="D1" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" s="7">
@@ -2066,7 +2087,9 @@
       <c r="C2" s="7">
         <v>22</v>
       </c>
-      <c r="D2" s="32"/>
+      <c r="D2" s="32" t="s">
+        <v>49</v>
+      </c>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="22.25" customHeight="1">
@@ -2079,7 +2102,9 @@
       <c r="C3" s="24">
         <v>33</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="33" t="s">
+        <v>50</v>
+      </c>
       <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="22.25" customHeight="1">
@@ -2092,7 +2117,9 @@
       <c r="C4" s="27">
         <v>12</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="34" t="s">
+        <v>51</v>
+      </c>
       <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" ht="22.25" customHeight="1">
@@ -2105,7 +2132,9 @@
       <c r="C5" s="26">
         <v>29</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="35" t="s">
+        <v>51</v>
+      </c>
       <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" ht="23.75" customHeight="1">
@@ -2118,7 +2147,9 @@
       <c r="C6" s="26">
         <v>5</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="35" t="s">
+        <v>52</v>
+      </c>
       <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5" ht="23.75" customHeight="1">
@@ -2196,7 +2227,9 @@
       <c r="C12" s="26">
         <v>20</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="35" t="s">
+        <v>53</v>
+      </c>
       <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:5" ht="22.25" customHeight="1">
@@ -2222,7 +2255,9 @@
       <c r="C14" s="26">
         <v>20</v>
       </c>
-      <c r="D14" s="35"/>
+      <c r="D14" s="35" t="s">
+        <v>53</v>
+      </c>
       <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:5" ht="22.25" customHeight="1">
@@ -2235,7 +2270,9 @@
       <c r="C15" s="26">
         <v>20</v>
       </c>
-      <c r="D15" s="35"/>
+      <c r="D15" s="35" t="s">
+        <v>53</v>
+      </c>
       <c r="E15" s="30"/>
     </row>
     <row r="16" spans="1:5" ht="23.75" customHeight="1">
@@ -2248,7 +2285,9 @@
       <c r="C16" s="26">
         <v>20</v>
       </c>
-      <c r="D16" s="35"/>
+      <c r="D16" s="35" t="s">
+        <v>53</v>
+      </c>
       <c r="E16" s="30"/>
     </row>
     <row r="17" spans="1:5" ht="21.25" customHeight="1">
@@ -2261,7 +2300,9 @@
       <c r="C17" s="28">
         <v>44640</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="35" t="s">
+        <v>53</v>
+      </c>
       <c r="E17" s="30"/>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
@@ -2287,7 +2328,9 @@
       <c r="C19" s="28">
         <v>44640</v>
       </c>
-      <c r="D19" s="35"/>
+      <c r="D19" s="35" t="s">
+        <v>53</v>
+      </c>
       <c r="E19" s="30"/>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
@@ -2300,7 +2343,9 @@
       <c r="C20" s="28">
         <v>44640</v>
       </c>
-      <c r="D20" s="35"/>
+      <c r="D20" s="35" t="s">
+        <v>53</v>
+      </c>
       <c r="E20" s="30"/>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
@@ -2313,7 +2358,9 @@
       <c r="C21" s="28">
         <v>44640</v>
       </c>
-      <c r="D21" s="35"/>
+      <c r="D21" s="35" t="s">
+        <v>53</v>
+      </c>
       <c r="E21" s="30"/>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1">
@@ -2326,7 +2373,9 @@
       <c r="C22" s="28">
         <v>44000</v>
       </c>
-      <c r="D22" s="35"/>
+      <c r="D22" s="35" t="s">
+        <v>53</v>
+      </c>
       <c r="E22" s="30"/>
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1">
@@ -2352,7 +2401,9 @@
       <c r="C24" s="28">
         <v>44000</v>
       </c>
-      <c r="D24" s="35"/>
+      <c r="D24" s="35" t="s">
+        <v>53</v>
+      </c>
       <c r="E24" s="30"/>
     </row>
     <row r="25" spans="1:5" ht="20" customHeight="1">
@@ -2365,7 +2416,9 @@
       <c r="C25" s="27">
         <v>44000</v>
       </c>
-      <c r="D25" s="35"/>
+      <c r="D25" s="35" t="s">
+        <v>53</v>
+      </c>
       <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5" ht="20" customHeight="1">
@@ -2378,7 +2431,9 @@
       <c r="C26" s="30">
         <v>44000</v>
       </c>
-      <c r="D26" s="35"/>
+      <c r="D26" s="35" t="s">
+        <v>53</v>
+      </c>
       <c r="E26" s="30"/>
     </row>
   </sheetData>
@@ -2399,10 +2454,10 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2412,7 +2467,7 @@
     <col min="7" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1">
+    <row r="1" spans="1:6" ht="22.5" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
@@ -2423,13 +2478,16 @@
         <v>43</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1">
+    <row r="2" spans="1:6" ht="22.5" customHeight="1">
       <c r="A2" s="7">
         <v>20</v>
       </c>
@@ -2439,12 +2497,15 @@
       <c r="C2" s="7">
         <v>22</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.25" customHeight="1">
+    <row r="3" spans="1:6" ht="22.25" customHeight="1">
       <c r="A3" s="24">
         <v>18</v>
       </c>
@@ -2454,12 +2515,15 @@
       <c r="C3" s="24">
         <v>33</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.25" customHeight="1">
+    <row r="4" spans="1:6" ht="22.25" customHeight="1">
       <c r="A4" s="27">
         <v>17</v>
       </c>
@@ -2469,12 +2533,15 @@
       <c r="C4" s="27">
         <v>12</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.25" customHeight="1">
+    <row r="5" spans="1:6" ht="22.25" customHeight="1">
       <c r="A5" s="26">
         <v>15</v>
       </c>
@@ -2484,12 +2551,15 @@
       <c r="C5" s="26">
         <v>29</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22.25" customHeight="1">
+    <row r="6" spans="1:6" ht="22.25" customHeight="1">
       <c r="A6" s="26">
         <v>3</v>
       </c>
@@ -2499,12 +2569,15 @@
       <c r="C6" s="26">
         <v>5</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22.25" customHeight="1">
+    <row r="7" spans="1:6" ht="22.25" customHeight="1">
       <c r="A7" s="10">
         <v>500000</v>
       </c>
@@ -2514,12 +2587,15 @@
       <c r="C7" s="10">
         <v>500000</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="22.25" customHeight="1">
+    <row r="8" spans="1:6" ht="22.25" customHeight="1">
       <c r="A8" s="10">
         <v>500000</v>
       </c>
@@ -2529,12 +2605,15 @@
       <c r="C8" s="10">
         <v>500000</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1">
+    <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="10">
         <v>500000</v>
       </c>
@@ -2544,12 +2623,15 @@
       <c r="C9" s="10">
         <v>500000</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1">
+    <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="10">
         <v>500000</v>
       </c>
@@ -2559,12 +2641,15 @@
       <c r="C10" s="10">
         <v>500000</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1">
+    <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="10">
         <v>500000</v>
       </c>
@@ -2574,12 +2659,15 @@
       <c r="C11" s="10">
         <v>500000</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
+    <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="11">
         <v>20</v>
       </c>
@@ -2590,11 +2678,12 @@
         <v>20</v>
       </c>
       <c r="D12" s="38"/>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="30"/>
+      <c r="F12" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1">
+    <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="11">
         <v>80</v>
       </c>
@@ -2605,11 +2694,12 @@
         <v>80</v>
       </c>
       <c r="D13" s="38"/>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="30"/>
+      <c r="F13" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1">
+    <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="11">
         <v>150</v>
       </c>
@@ -2620,11 +2710,12 @@
         <v>150</v>
       </c>
       <c r="D14" s="38"/>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1">
+    <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="11">
         <v>200</v>
       </c>
@@ -2635,11 +2726,12 @@
         <v>200</v>
       </c>
       <c r="D15" s="38"/>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1">
+    <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="11">
         <v>500</v>
       </c>
@@ -2650,11 +2742,12 @@
         <v>500</v>
       </c>
       <c r="D16" s="38"/>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1">
+    <row r="17" spans="1:6" ht="20" customHeight="1">
       <c r="A17" s="11">
         <v>20</v>
       </c>
@@ -2664,12 +2757,15 @@
       <c r="C17" s="11">
         <v>20</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="20" t="s">
+      <c r="D17" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
+    <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="11">
         <v>80</v>
       </c>
@@ -2679,12 +2775,15 @@
       <c r="C18" s="11">
         <v>80</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1">
+    <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="11">
         <v>150</v>
       </c>
@@ -2694,12 +2793,15 @@
       <c r="C19" s="11">
         <v>150</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="20" t="s">
+      <c r="D19" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1">
+    <row r="20" spans="1:6" ht="20" customHeight="1">
       <c r="A20" s="11">
         <v>200</v>
       </c>
@@ -2709,12 +2811,15 @@
       <c r="C20" s="11">
         <v>200</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1">
+    <row r="21" spans="1:6" ht="20" customHeight="1">
       <c r="A21" s="11">
         <v>500</v>
       </c>
@@ -2724,12 +2829,15 @@
       <c r="C21" s="11">
         <v>500</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="20" t="s">
+      <c r="D21" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1">
+    <row r="22" spans="1:6" ht="20" customHeight="1">
       <c r="A22" s="22">
         <v>20</v>
       </c>
@@ -2739,12 +2847,15 @@
       <c r="C22" s="22">
         <v>20</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="20" t="s">
+      <c r="D22" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1">
+    <row r="23" spans="1:6" ht="20" customHeight="1">
       <c r="A23" s="23">
         <v>80</v>
       </c>
@@ -2754,12 +2865,15 @@
       <c r="C23" s="23">
         <v>80</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="20" t="s">
+      <c r="D23" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1">
+    <row r="24" spans="1:6" ht="20" customHeight="1">
       <c r="A24" s="23">
         <v>150</v>
       </c>
@@ -2769,12 +2883,15 @@
       <c r="C24" s="23">
         <v>150</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="20" t="s">
+      <c r="D24" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1">
+    <row r="25" spans="1:6" ht="20" customHeight="1">
       <c r="A25" s="23">
         <v>200</v>
       </c>
@@ -2784,12 +2901,15 @@
       <c r="C25" s="23">
         <v>200</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="20" t="s">
+      <c r="D25" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1">
+    <row r="26" spans="1:6" ht="20" customHeight="1">
       <c r="A26" s="23">
         <v>500</v>
       </c>
@@ -2799,12 +2919,15 @@
       <c r="C26" s="23">
         <v>500</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="20" t="s">
+      <c r="D26" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1">
+    <row r="27" spans="1:6" ht="20" customHeight="1">
       <c r="A27" s="22">
         <v>20</v>
       </c>
@@ -2814,12 +2937,15 @@
       <c r="C27" s="22">
         <v>20</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="20" t="s">
+      <c r="D27" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="20" customHeight="1">
+    <row r="28" spans="1:6" ht="20" customHeight="1">
       <c r="A28" s="23">
         <v>80</v>
       </c>
@@ -2829,12 +2955,15 @@
       <c r="C28" s="23">
         <v>80</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="20" t="s">
+      <c r="D28" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="20" customHeight="1">
+    <row r="29" spans="1:6" ht="20" customHeight="1">
       <c r="A29" s="23">
         <v>150</v>
       </c>
@@ -2844,12 +2973,15 @@
       <c r="C29" s="23">
         <v>150</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="20" t="s">
+      <c r="D29" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="20" customHeight="1">
+    <row r="30" spans="1:6" ht="20" customHeight="1">
       <c r="A30" s="23">
         <v>200</v>
       </c>
@@ -2859,12 +2991,15 @@
       <c r="C30" s="23">
         <v>200</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="20" t="s">
+      <c r="D30" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="20" customHeight="1">
+    <row r="31" spans="1:6" ht="20" customHeight="1">
       <c r="A31" s="23">
         <v>500</v>
       </c>
@@ -2874,12 +3009,15 @@
       <c r="C31" s="23">
         <v>500</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="20" t="s">
+      <c r="D31" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="20" customHeight="1">
+    <row r="32" spans="1:6" ht="20" customHeight="1">
       <c r="A32" s="22">
         <v>20</v>
       </c>
@@ -2889,12 +3027,15 @@
       <c r="C32" s="22">
         <v>20</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="20" t="s">
+      <c r="D32" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="20" customHeight="1">
+    <row r="33" spans="1:6" ht="20" customHeight="1">
       <c r="A33" s="23">
         <v>80</v>
       </c>
@@ -2904,12 +3045,15 @@
       <c r="C33" s="23">
         <v>80</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="20" t="s">
+      <c r="D33" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="20" customHeight="1">
+    <row r="34" spans="1:6" ht="20" customHeight="1">
       <c r="A34" s="23">
         <v>150</v>
       </c>
@@ -2919,12 +3063,15 @@
       <c r="C34" s="23">
         <v>150</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="20" t="s">
+      <c r="D34" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="20" customHeight="1">
+    <row r="35" spans="1:6" ht="20" customHeight="1">
       <c r="A35" s="23">
         <v>200</v>
       </c>
@@ -2934,12 +3081,15 @@
       <c r="C35" s="23">
         <v>200</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="20" t="s">
+      <c r="D35" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="20" customHeight="1">
+    <row r="36" spans="1:6" ht="20" customHeight="1">
       <c r="A36" s="23">
         <v>500</v>
       </c>
@@ -2949,12 +3099,15 @@
       <c r="C36" s="23">
         <v>500</v>
       </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="20" t="s">
+      <c r="D36" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="20" customHeight="1">
+    <row r="37" spans="1:6" ht="20" customHeight="1">
       <c r="A37" s="22">
         <v>20</v>
       </c>
@@ -2964,12 +3117,15 @@
       <c r="C37" s="22">
         <v>20</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="20" t="s">
+      <c r="D37" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="20" customHeight="1">
+    <row r="38" spans="1:6" ht="20" customHeight="1">
       <c r="A38" s="23">
         <v>80</v>
       </c>
@@ -2979,12 +3135,15 @@
       <c r="C38" s="23">
         <v>80</v>
       </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="20" t="s">
+      <c r="D38" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="20" customHeight="1">
+    <row r="39" spans="1:6" ht="20" customHeight="1">
       <c r="A39" s="23">
         <v>150</v>
       </c>
@@ -2994,12 +3153,15 @@
       <c r="C39" s="23">
         <v>150</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="20" t="s">
+      <c r="D39" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="20" customHeight="1">
+    <row r="40" spans="1:6" ht="20" customHeight="1">
       <c r="A40" s="23">
         <v>200</v>
       </c>
@@ -3009,12 +3171,15 @@
       <c r="C40" s="23">
         <v>200</v>
       </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="20" t="s">
+      <c r="D40" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="20" customHeight="1">
+    <row r="41" spans="1:6" ht="20" customHeight="1">
       <c r="A41" s="23">
         <v>500</v>
       </c>
@@ -3024,12 +3189,15 @@
       <c r="C41" s="23">
         <v>500</v>
       </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="20" t="s">
+      <c r="D41" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="20" customHeight="1">
+    <row r="42" spans="1:6" ht="20" customHeight="1">
       <c r="A42" s="22">
         <v>20</v>
       </c>
@@ -3039,12 +3207,15 @@
       <c r="C42" s="22">
         <v>20</v>
       </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="20" t="s">
+      <c r="D42" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="20" customHeight="1">
+    <row r="43" spans="1:6" ht="20" customHeight="1">
       <c r="A43" s="23">
         <v>80</v>
       </c>
@@ -3054,12 +3225,15 @@
       <c r="C43" s="23">
         <v>80</v>
       </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="20" t="s">
+      <c r="D43" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="20" customHeight="1">
+    <row r="44" spans="1:6" ht="20" customHeight="1">
       <c r="A44" s="23">
         <v>150</v>
       </c>
@@ -3069,12 +3243,15 @@
       <c r="C44" s="23">
         <v>150</v>
       </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="20" t="s">
+      <c r="D44" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="20" customHeight="1">
+    <row r="45" spans="1:6" ht="20" customHeight="1">
       <c r="A45" s="23">
         <v>200</v>
       </c>
@@ -3084,12 +3261,15 @@
       <c r="C45" s="23">
         <v>200</v>
       </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="20" t="s">
+      <c r="D45" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="20" customHeight="1">
+    <row r="46" spans="1:6" ht="20" customHeight="1">
       <c r="A46" s="23">
         <v>500</v>
       </c>
@@ -3099,8 +3279,11 @@
       <c r="C46" s="23">
         <v>500</v>
       </c>
-      <c r="D46" s="38"/>
-      <c r="E46" s="20" t="s">
+      <c r="D46" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20" t="s">
         <v>39</v>
       </c>
     </row>

--- a/src/main/java/testing/excel/hw1.xlsx
+++ b/src/main/java/testing/excel/hw1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freddyhe/Desktop/软测/soltware_testing-master/src/main/java/testing/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\软件测试\soltware_testing-master\src\main\java\testing\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842DC6B1-D648-9A4C-BF3B-C7D5DA3DC35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DC58BA-DFD8-4555-9B79-8A0396DAFC4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="500" windowWidth="21020" windowHeight="16020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="504" windowWidth="21024" windowHeight="16020" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
   <si>
     <t>Numbers 工作表名称</t>
   </si>
@@ -139,120 +139,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>y&lt;y1</t>
-  </si>
-  <si>
-    <t>y&lt;y1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>y&gt;y5</t>
-  </si>
-  <si>
-    <t>y&gt;y5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x1 y1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x2 y1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x3 y1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x4 y2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x5 y2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x4 y1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x5 y1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x1 y2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x2 y2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x3 y2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x1 y3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x2 y3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x3 y3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x4 y3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x5 y3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x1 y4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x2 y4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x3 y4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x5 y4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x4 y4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x1 y5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x2 y5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x3 y5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x4 y5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x5 y5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>result</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -340,26 +226,45 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>非等腰锐角三角形</t>
+    <t>等腰锐角三角形</t>
   </si>
   <si>
-    <t>非等腰钝角三角形</t>
+    <t>不构成三角形</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等边三角形</t>
+  </si>
+  <si>
+    <t>不构成三角形</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等边三角形</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>等腰钝角三角形</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等腰锐角三角形</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>直角三角形</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>等腰锐角三角形</t>
+    <t>不构成三角形</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -448,6 +353,13 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -475,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -588,19 +500,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="13"/>
       </left>
       <right style="thin">
@@ -630,30 +529,6 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -677,13 +552,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thick">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thick">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -756,49 +691,55 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1970,24 +1911,24 @@
       <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="44.33203125" customWidth="1"/>
     <col min="3" max="4" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="50" customHeight="1">
-      <c r="B3" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-    </row>
-    <row r="4" spans="2:4" ht="65" customHeight="1">
+    <row r="3" spans="2:4" ht="49.95" customHeight="1">
+      <c r="B3" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+    </row>
+    <row r="4" spans="2:4" ht="64.95" customHeight="1">
       <c r="B4" s="19"/>
     </row>
-    <row r="7" spans="2:4" ht="19">
+    <row r="7" spans="2:4" ht="17.399999999999999">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1998,33 +1939,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="17">
+    <row r="9" spans="2:4" ht="15">
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:4" ht="17">
+    <row r="10" spans="2:4" ht="15">
       <c r="B10" s="3"/>
       <c r="C10" s="14" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="17">
+    <row r="11" spans="2:4" ht="15">
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="2:4" ht="17">
+    <row r="12" spans="2:4" ht="15">
       <c r="B12" s="3"/>
       <c r="C12" s="14" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>6</v>
@@ -2047,14 +1988,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="16.33203125" style="4" customWidth="1"/>
     <col min="7" max="16384" width="16.33203125" style="4"/>
@@ -2062,379 +2003,395 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>19</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" s="7">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A3" s="10">
+        <v>5</v>
+      </c>
+      <c r="B3" s="11">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A4" s="10">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11">
+        <v>5</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A5" s="10">
+        <v>5</v>
+      </c>
+      <c r="B5" s="11">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11">
+        <v>8</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="1:5" ht="23.7" customHeight="1" thickBot="1">
+      <c r="A6" s="35">
+        <v>5</v>
+      </c>
+      <c r="B6" s="36">
+        <v>5</v>
+      </c>
+      <c r="C6" s="36">
+        <v>10</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="1:5" ht="23.7" customHeight="1" thickTop="1">
+      <c r="A7" s="37">
+        <v>0</v>
+      </c>
+      <c r="B7" s="38">
+        <v>5</v>
+      </c>
+      <c r="C7" s="38">
+        <v>5</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A8" s="10">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11">
+        <v>5</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
+        <v>5</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11">
+        <v>5</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="1:5" ht="23.7" customHeight="1" thickBot="1">
+      <c r="A11" s="35">
+        <v>10</v>
+      </c>
+      <c r="B11" s="36">
+        <v>5</v>
+      </c>
+      <c r="C11" s="36">
+        <v>5</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" spans="1:5" ht="23.7" customHeight="1" thickTop="1">
+      <c r="A12" s="37">
+        <v>5</v>
+      </c>
+      <c r="B12" s="38">
+        <v>0</v>
+      </c>
+      <c r="C12" s="38">
+        <v>5</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A13" s="10">
+        <v>5</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11">
+        <v>5</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A14" s="10">
+        <v>5</v>
+      </c>
+      <c r="B14" s="11">
+        <v>5</v>
+      </c>
+      <c r="C14" s="11">
+        <v>5</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A15" s="10">
+        <v>5</v>
+      </c>
+      <c r="B15" s="11">
+        <v>8</v>
+      </c>
+      <c r="C15" s="11">
+        <v>5</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="1:5" ht="23.7" customHeight="1">
+      <c r="A16" s="10">
+        <v>5</v>
+      </c>
+      <c r="B16" s="11">
+        <v>10</v>
+      </c>
+      <c r="C16" s="11">
+        <v>5</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="1:5" ht="21.3" customHeight="1">
+      <c r="A17" s="26">
+        <v>44640</v>
+      </c>
+      <c r="B17" s="24">
+        <v>4</v>
+      </c>
+      <c r="C17" s="26">
+        <v>44640</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="8">
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="1:5" ht="19.95" customHeight="1">
+      <c r="A18" s="26">
+        <v>44640</v>
+      </c>
+      <c r="B18" s="24">
+        <v>0</v>
+      </c>
+      <c r="C18" s="26">
+        <v>44640</v>
+      </c>
+      <c r="D18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7">
-        <v>22</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.25" customHeight="1">
-      <c r="A3" s="24">
-        <v>18</v>
-      </c>
-      <c r="B3" s="25">
-        <v>19</v>
-      </c>
-      <c r="C3" s="24">
-        <v>33</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.25" customHeight="1">
-      <c r="A4" s="27">
-        <v>17</v>
-      </c>
-      <c r="B4" s="27">
-        <v>12</v>
-      </c>
-      <c r="C4" s="27">
-        <v>12</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="30"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.25" customHeight="1">
-      <c r="A5" s="26">
-        <v>15</v>
-      </c>
-      <c r="B5" s="26">
-        <v>15</v>
-      </c>
-      <c r="C5" s="26">
-        <v>29</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="30"/>
-    </row>
-    <row r="6" spans="1:5" ht="23.75" customHeight="1">
-      <c r="A6" s="26">
-        <v>3</v>
-      </c>
-      <c r="B6" s="26">
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:5" ht="19.95" customHeight="1">
+      <c r="A19" s="26">
+        <v>44640</v>
+      </c>
+      <c r="B19" s="24">
+        <v>1</v>
+      </c>
+      <c r="C19" s="26">
+        <v>44640</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="1:5" ht="19.95" customHeight="1">
+      <c r="A20" s="26">
+        <v>44640</v>
+      </c>
+      <c r="B20" s="24">
+        <v>11</v>
+      </c>
+      <c r="C20" s="26">
+        <v>44640</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" ht="19.95" customHeight="1">
+      <c r="A21" s="26">
+        <v>44640</v>
+      </c>
+      <c r="B21" s="24">
+        <v>10</v>
+      </c>
+      <c r="C21" s="26">
+        <v>44640</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" spans="1:5" ht="19.95" customHeight="1">
+      <c r="A22" s="26">
+        <v>44000</v>
+      </c>
+      <c r="B22" s="24">
         <v>4</v>
       </c>
-      <c r="C6" s="26">
-        <v>5</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="30"/>
-    </row>
-    <row r="7" spans="1:5" ht="23.75" customHeight="1">
-      <c r="A7" s="26">
+      <c r="C22" s="26">
+        <v>44000</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="1:5" ht="19.95" customHeight="1">
+      <c r="A23" s="24">
+        <v>44000</v>
+      </c>
+      <c r="B23" s="24">
         <v>0</v>
       </c>
-      <c r="B7" s="26">
-        <v>4</v>
-      </c>
-      <c r="C7" s="26">
-        <v>0</v>
-      </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.25" customHeight="1">
-      <c r="A8" s="26">
-        <v>0</v>
-      </c>
-      <c r="B8" s="26">
-        <v>0</v>
-      </c>
-      <c r="C8" s="26">
-        <v>0</v>
-      </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.25" customHeight="1">
-      <c r="A9" s="26">
-        <v>0</v>
-      </c>
-      <c r="B9" s="26">
+      <c r="C23" s="24">
+        <v>44000</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="28"/>
+    </row>
+    <row r="24" spans="1:5" ht="19.95" customHeight="1">
+      <c r="A24" s="26">
+        <v>44000</v>
+      </c>
+      <c r="B24" s="24">
         <v>1</v>
       </c>
-      <c r="C9" s="26">
-        <v>0</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="30"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.25" customHeight="1">
-      <c r="A10" s="26">
-        <v>0</v>
-      </c>
-      <c r="B10" s="26">
+      <c r="C24" s="26">
+        <v>44000</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" ht="19.95" customHeight="1">
+      <c r="A25" s="25">
+        <v>44000</v>
+      </c>
+      <c r="B25" s="25">
         <v>11</v>
       </c>
-      <c r="C10" s="26">
-        <v>0</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="30"/>
-    </row>
-    <row r="11" spans="1:5" ht="23.75" customHeight="1">
-      <c r="A11" s="26">
-        <v>0</v>
-      </c>
-      <c r="B11" s="26">
+      <c r="C25" s="25">
+        <v>44000</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="28"/>
+    </row>
+    <row r="26" spans="1:5" ht="19.95" customHeight="1">
+      <c r="A26" s="28">
+        <v>44000</v>
+      </c>
+      <c r="B26" s="25">
         <v>10</v>
       </c>
-      <c r="C11" s="26">
-        <v>0</v>
-      </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="30"/>
-    </row>
-    <row r="12" spans="1:5" ht="23.75" customHeight="1">
-      <c r="A12" s="26">
+      <c r="C26" s="28">
+        <v>44000</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="26">
-        <v>4</v>
-      </c>
-      <c r="C12" s="26">
-        <v>20</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="30"/>
-    </row>
-    <row r="13" spans="1:5" ht="22.25" customHeight="1">
-      <c r="A13" s="26">
-        <v>20</v>
-      </c>
-      <c r="B13" s="26">
-        <v>0</v>
-      </c>
-      <c r="C13" s="26">
-        <v>20</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" spans="1:5" ht="22.25" customHeight="1">
-      <c r="A14" s="26">
-        <v>20</v>
-      </c>
-      <c r="B14" s="26">
-        <v>1</v>
-      </c>
-      <c r="C14" s="26">
-        <v>20</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" spans="1:5" ht="22.25" customHeight="1">
-      <c r="A15" s="26">
-        <v>20</v>
-      </c>
-      <c r="B15" s="26">
-        <v>11</v>
-      </c>
-      <c r="C15" s="26">
-        <v>20</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="1:5" ht="23.75" customHeight="1">
-      <c r="A16" s="26">
-        <v>20</v>
-      </c>
-      <c r="B16" s="26">
-        <v>10</v>
-      </c>
-      <c r="C16" s="26">
-        <v>20</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="30"/>
-    </row>
-    <row r="17" spans="1:5" ht="21.25" customHeight="1">
-      <c r="A17" s="28">
-        <v>44640</v>
-      </c>
-      <c r="B17" s="26">
-        <v>4</v>
-      </c>
-      <c r="C17" s="28">
-        <v>44640</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="30"/>
-    </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
-      <c r="A18" s="28">
-        <v>44640</v>
-      </c>
-      <c r="B18" s="26">
-        <v>0</v>
-      </c>
-      <c r="C18" s="28">
-        <v>44640</v>
-      </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="30"/>
-    </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1">
-      <c r="A19" s="28">
-        <v>44640</v>
-      </c>
-      <c r="B19" s="26">
-        <v>1</v>
-      </c>
-      <c r="C19" s="28">
-        <v>44640</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="30"/>
-    </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1">
-      <c r="A20" s="28">
-        <v>44640</v>
-      </c>
-      <c r="B20" s="26">
-        <v>11</v>
-      </c>
-      <c r="C20" s="28">
-        <v>44640</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="30"/>
-    </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1">
-      <c r="A21" s="28">
-        <v>44640</v>
-      </c>
-      <c r="B21" s="26">
-        <v>10</v>
-      </c>
-      <c r="C21" s="28">
-        <v>44640</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="30"/>
-    </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1">
-      <c r="A22" s="28">
-        <v>44000</v>
-      </c>
-      <c r="B22" s="26">
-        <v>4</v>
-      </c>
-      <c r="C22" s="28">
-        <v>44000</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="30"/>
-    </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1">
-      <c r="A23" s="26">
-        <v>44000</v>
-      </c>
-      <c r="B23" s="26">
-        <v>0</v>
-      </c>
-      <c r="C23" s="26">
-        <v>44000</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="30"/>
-    </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1">
-      <c r="A24" s="28">
-        <v>44000</v>
-      </c>
-      <c r="B24" s="26">
-        <v>1</v>
-      </c>
-      <c r="C24" s="28">
-        <v>44000</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="30"/>
-    </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1">
-      <c r="A25" s="27">
-        <v>44000</v>
-      </c>
-      <c r="B25" s="27">
-        <v>11</v>
-      </c>
-      <c r="C25" s="27">
-        <v>44000</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="30"/>
-    </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1">
-      <c r="A26" s="30">
-        <v>44000</v>
-      </c>
-      <c r="B26" s="27">
-        <v>10</v>
-      </c>
-      <c r="C26" s="30">
-        <v>44000</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="30"/>
+      <c r="E26" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2453,14 +2410,14 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="16.33203125" style="13" customWidth="1"/>
     <col min="3" max="5" width="16.33203125" style="13"/>
@@ -2469,828 +2426,468 @@
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1">
       <c r="A2" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B2" s="8">
-        <v>21</v>
-      </c>
-      <c r="C2" s="7">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8">
+        <v>8</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>49</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A3" s="24">
-        <v>18</v>
-      </c>
-      <c r="B3" s="25">
-        <v>19</v>
-      </c>
-      <c r="C3" s="24">
-        <v>33</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="29"/>
+    <row r="3" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A3" s="10">
+        <v>5</v>
+      </c>
+      <c r="B3" s="11">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11">
+        <v>8</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="27"/>
       <c r="F3" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A4" s="27">
-        <v>17</v>
-      </c>
-      <c r="B4" s="27">
-        <v>12</v>
-      </c>
-      <c r="C4" s="27">
-        <v>12</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="30"/>
+    <row r="4" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A4" s="10">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="28"/>
       <c r="F4" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A5" s="26">
-        <v>15</v>
-      </c>
-      <c r="B5" s="26">
-        <v>15</v>
-      </c>
-      <c r="C5" s="26">
-        <v>29</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="30"/>
+    <row r="5" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11">
+        <v>4</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="28"/>
       <c r="F5" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A6" s="26">
-        <v>3</v>
-      </c>
-      <c r="B6" s="26">
-        <v>4</v>
-      </c>
-      <c r="C6" s="26">
-        <v>5</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="30"/>
+    <row r="6" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="28"/>
       <c r="F6" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="22.25" customHeight="1">
+    <row r="7" spans="1:6" ht="22.2" customHeight="1">
       <c r="A7" s="10">
-        <v>500000</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
-        <v>500000</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="30"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11">
+        <v>5</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="28"/>
       <c r="F7" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="22.25" customHeight="1">
+    <row r="8" spans="1:6" ht="22.2" customHeight="1">
       <c r="A8" s="10">
-        <v>500000</v>
+        <v>2</v>
       </c>
       <c r="B8" s="11">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="C8" s="10">
-        <v>500000</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="30"/>
+      <c r="D8" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="28"/>
       <c r="F8" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+    <row r="9" spans="1:6" ht="19.95" customHeight="1">
       <c r="A9" s="10">
-        <v>500000</v>
+        <v>3</v>
       </c>
       <c r="B9" s="11">
-        <v>3</v>
-      </c>
-      <c r="C9" s="10">
-        <v>500000</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="30"/>
+        <v>4</v>
+      </c>
+      <c r="C9" s="11">
+        <v>5</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="28"/>
       <c r="F9" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
-      <c r="A10" s="10">
-        <v>500000</v>
-      </c>
-      <c r="B10" s="11">
-        <v>5</v>
-      </c>
-      <c r="C10" s="10">
-        <v>500000</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
-      <c r="A11" s="10">
-        <v>500000</v>
-      </c>
-      <c r="B11" s="11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="10">
-        <v>500000</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
-      <c r="A12" s="11">
-        <v>20</v>
-      </c>
-      <c r="B12" s="11">
-        <v>-3</v>
-      </c>
-      <c r="C12" s="11">
-        <v>20</v>
-      </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
-      <c r="A13" s="11">
-        <v>80</v>
-      </c>
-      <c r="B13" s="11">
-        <v>-3</v>
-      </c>
-      <c r="C13" s="11">
-        <v>80</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
-      <c r="A14" s="11">
-        <v>150</v>
-      </c>
-      <c r="B14" s="11">
-        <v>-3</v>
-      </c>
-      <c r="C14" s="11">
-        <v>150</v>
-      </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
-      <c r="A15" s="11">
-        <v>200</v>
-      </c>
-      <c r="B15" s="11">
-        <v>-3</v>
-      </c>
-      <c r="C15" s="11">
-        <v>200</v>
-      </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
-      <c r="A16" s="11">
-        <v>500</v>
-      </c>
-      <c r="B16" s="11">
-        <v>-3</v>
-      </c>
-      <c r="C16" s="11">
-        <v>500</v>
-      </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1">
-      <c r="A17" s="11">
-        <v>20</v>
-      </c>
-      <c r="B17" s="11">
-        <v>12</v>
-      </c>
-      <c r="C17" s="11">
-        <v>20</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
-      <c r="A18" s="11">
-        <v>80</v>
-      </c>
-      <c r="B18" s="11">
-        <v>14</v>
-      </c>
-      <c r="C18" s="11">
-        <v>80</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
-      <c r="A19" s="11">
-        <v>150</v>
-      </c>
-      <c r="B19" s="21">
-        <v>15</v>
-      </c>
-      <c r="C19" s="11">
-        <v>150</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
-      <c r="A20" s="11">
-        <v>200</v>
-      </c>
-      <c r="B20" s="11">
-        <v>12</v>
-      </c>
-      <c r="C20" s="11">
-        <v>200</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
-      <c r="A21" s="11">
-        <v>500</v>
-      </c>
-      <c r="B21" s="11">
-        <v>12</v>
-      </c>
-      <c r="C21" s="11">
-        <v>500</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
-      <c r="A22" s="22">
-        <v>20</v>
-      </c>
-      <c r="B22" s="11">
-        <v>1</v>
-      </c>
-      <c r="C22" s="22">
-        <v>20</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1">
-      <c r="A23" s="23">
-        <v>80</v>
-      </c>
-      <c r="B23" s="11">
-        <v>1</v>
-      </c>
-      <c r="C23" s="23">
-        <v>80</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1">
-      <c r="A24" s="23">
-        <v>150</v>
-      </c>
-      <c r="B24" s="11">
-        <v>1</v>
-      </c>
-      <c r="C24" s="23">
-        <v>150</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1">
-      <c r="A25" s="23">
-        <v>200</v>
-      </c>
-      <c r="B25" s="11">
-        <v>1</v>
-      </c>
-      <c r="C25" s="23">
-        <v>200</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1">
-      <c r="A26" s="23">
-        <v>500</v>
-      </c>
-      <c r="B26" s="11">
-        <v>1</v>
-      </c>
-      <c r="C26" s="23">
-        <v>500</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="20" customHeight="1">
-      <c r="A27" s="22">
-        <v>20</v>
-      </c>
-      <c r="B27" s="11">
-        <v>2</v>
-      </c>
-      <c r="C27" s="22">
-        <v>20</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>53</v>
-      </c>
+    <row r="10" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A22" s="22"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A23" s="23"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A24" s="23"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A25" s="23"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A26" s="23"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A27" s="22"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="20" customHeight="1">
-      <c r="A28" s="23">
-        <v>80</v>
-      </c>
-      <c r="B28" s="11">
-        <v>2</v>
-      </c>
-      <c r="C28" s="23">
-        <v>80</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A28" s="23"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="20" customHeight="1">
-      <c r="A29" s="23">
-        <v>150</v>
-      </c>
-      <c r="B29" s="11">
-        <v>2</v>
-      </c>
-      <c r="C29" s="23">
-        <v>150</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A29" s="23"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="20" customHeight="1">
-      <c r="A30" s="23">
-        <v>200</v>
-      </c>
-      <c r="B30" s="11">
-        <v>2</v>
-      </c>
-      <c r="C30" s="23">
-        <v>200</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A30" s="23"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="20" customHeight="1">
-      <c r="A31" s="23">
-        <v>500</v>
-      </c>
-      <c r="B31" s="11">
-        <v>2</v>
-      </c>
-      <c r="C31" s="23">
-        <v>500</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A31" s="23"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="20" customHeight="1">
-      <c r="A32" s="22">
-        <v>20</v>
-      </c>
-      <c r="B32" s="11">
-        <v>3</v>
-      </c>
-      <c r="C32" s="22">
-        <v>20</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A32" s="22"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="20" customHeight="1">
-      <c r="A33" s="23">
-        <v>80</v>
-      </c>
-      <c r="B33" s="11">
-        <v>3</v>
-      </c>
-      <c r="C33" s="23">
-        <v>80</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A33" s="23"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="20" customHeight="1">
-      <c r="A34" s="23">
-        <v>150</v>
-      </c>
-      <c r="B34" s="11">
-        <v>3</v>
-      </c>
-      <c r="C34" s="23">
-        <v>150</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A34" s="23"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1">
-      <c r="A35" s="23">
-        <v>200</v>
-      </c>
-      <c r="B35" s="11">
-        <v>3</v>
-      </c>
-      <c r="C35" s="23">
-        <v>200</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A35" s="23"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="20" customHeight="1">
-      <c r="A36" s="23">
-        <v>500</v>
-      </c>
-      <c r="B36" s="11">
-        <v>3</v>
-      </c>
-      <c r="C36" s="23">
-        <v>500</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="F35" s="20"/>
+    </row>
+    <row r="36" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A36" s="23"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="20" customHeight="1">
-      <c r="A37" s="22">
-        <v>20</v>
-      </c>
-      <c r="B37" s="11">
-        <v>4</v>
-      </c>
-      <c r="C37" s="22">
-        <v>20</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="F36" s="20"/>
+    </row>
+    <row r="37" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A37" s="22"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="20" customHeight="1">
-      <c r="A38" s="23">
-        <v>80</v>
-      </c>
-      <c r="B38" s="11">
-        <v>5</v>
-      </c>
-      <c r="C38" s="23">
-        <v>80</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="F37" s="20"/>
+    </row>
+    <row r="38" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A38" s="23"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="20"/>
-      <c r="F38" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="20" customHeight="1">
-      <c r="A39" s="23">
-        <v>150</v>
-      </c>
-      <c r="B39" s="11">
-        <v>6</v>
-      </c>
-      <c r="C39" s="23">
-        <v>150</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A39" s="23"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="20" customHeight="1">
-      <c r="A40" s="23">
-        <v>200</v>
-      </c>
-      <c r="B40" s="11">
-        <v>5</v>
-      </c>
-      <c r="C40" s="23">
-        <v>200</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="F39" s="20"/>
+    </row>
+    <row r="40" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A40" s="23"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1">
-      <c r="A41" s="23">
-        <v>500</v>
-      </c>
-      <c r="B41" s="11">
-        <v>6</v>
-      </c>
-      <c r="C41" s="23">
-        <v>500</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="F40" s="20"/>
+    </row>
+    <row r="41" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A41" s="23"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="32"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="20" customHeight="1">
-      <c r="A42" s="22">
-        <v>20</v>
-      </c>
-      <c r="B42" s="11">
-        <v>7</v>
-      </c>
-      <c r="C42" s="22">
-        <v>20</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="F41" s="20"/>
+    </row>
+    <row r="42" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A42" s="22"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="20"/>
-      <c r="F42" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="20" customHeight="1">
-      <c r="A43" s="23">
-        <v>80</v>
-      </c>
-      <c r="B43" s="11">
-        <v>8</v>
-      </c>
-      <c r="C43" s="23">
-        <v>80</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="F42" s="20"/>
+    </row>
+    <row r="43" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A43" s="23"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="20" customHeight="1">
-      <c r="A44" s="23">
-        <v>150</v>
-      </c>
-      <c r="B44" s="11">
-        <v>9</v>
-      </c>
-      <c r="C44" s="23">
-        <v>150</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="F43" s="20"/>
+    </row>
+    <row r="44" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A44" s="23"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="20"/>
-      <c r="F44" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="20" customHeight="1">
-      <c r="A45" s="23">
-        <v>200</v>
-      </c>
-      <c r="B45" s="11">
-        <v>8</v>
-      </c>
-      <c r="C45" s="23">
-        <v>200</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="F44" s="20"/>
+    </row>
+    <row r="45" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A45" s="23"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="32"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="20" customHeight="1">
-      <c r="A46" s="23">
-        <v>500</v>
-      </c>
-      <c r="B46" s="11">
-        <v>9</v>
-      </c>
-      <c r="C46" s="23">
-        <v>500</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="F45" s="20"/>
+    </row>
+    <row r="46" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A46" s="23"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="20"/>
-      <c r="F46" s="20" t="s">
-        <v>39</v>
-      </c>
+      <c r="F46" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/main/java/testing/excel/hw1.xlsx
+++ b/src/main/java/testing/excel/hw1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\软件测试\soltware_testing-master\src\main\java\testing\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DC58BA-DFD8-4555-9B79-8A0396DAFC4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01059919-3D2B-4001-9658-9852F2EFD459}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="504" windowWidth="21024" windowHeight="16020" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="504" windowWidth="21024" windowHeight="16020" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Numbers 工作表名称</t>
   </si>
@@ -224,9 +224,6 @@
   <si>
     <t>expect</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>等腰锐角三角形</t>
   </si>
   <si>
     <t>不构成三角形</t>
@@ -1988,11 +1985,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -2029,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="9"/>
     </row>
@@ -2044,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="27"/>
     </row>
@@ -2059,7 +2056,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="28"/>
     </row>
@@ -2074,7 +2071,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="28"/>
     </row>
@@ -2089,7 +2086,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="28"/>
     </row>
@@ -2104,7 +2101,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="28"/>
     </row>
@@ -2119,7 +2116,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="28"/>
     </row>
@@ -2134,7 +2131,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="28"/>
     </row>
@@ -2149,7 +2146,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="28"/>
     </row>
@@ -2164,7 +2161,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="28"/>
     </row>
@@ -2179,7 +2176,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="28"/>
     </row>
@@ -2194,7 +2191,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="28"/>
     </row>
@@ -2209,7 +2206,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="28"/>
     </row>
@@ -2224,7 +2221,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="28"/>
     </row>
@@ -2239,158 +2236,78 @@
         <v>5</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="28"/>
     </row>
     <row r="17" spans="1:5" ht="21.3" customHeight="1">
-      <c r="A17" s="26">
-        <v>44640</v>
-      </c>
-      <c r="B17" s="24">
-        <v>4</v>
-      </c>
-      <c r="C17" s="26">
-        <v>44640</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>20</v>
-      </c>
+      <c r="A17" s="26"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="28"/>
     </row>
     <row r="18" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A18" s="26">
-        <v>44640</v>
-      </c>
-      <c r="B18" s="24">
-        <v>0</v>
-      </c>
-      <c r="C18" s="26">
-        <v>44640</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>21</v>
-      </c>
+      <c r="A18" s="26"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="28"/>
     </row>
     <row r="19" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A19" s="26">
-        <v>44640</v>
-      </c>
-      <c r="B19" s="24">
-        <v>1</v>
-      </c>
-      <c r="C19" s="26">
-        <v>44640</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>20</v>
-      </c>
+      <c r="A19" s="26"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="28"/>
     </row>
     <row r="20" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A20" s="26">
-        <v>44640</v>
-      </c>
-      <c r="B20" s="24">
-        <v>11</v>
-      </c>
-      <c r="C20" s="26">
-        <v>44640</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>20</v>
-      </c>
+      <c r="A20" s="26"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="28"/>
     </row>
     <row r="21" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A21" s="26">
-        <v>44640</v>
-      </c>
-      <c r="B21" s="24">
-        <v>10</v>
-      </c>
-      <c r="C21" s="26">
-        <v>44640</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>20</v>
-      </c>
+      <c r="A21" s="26"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A22" s="26">
-        <v>44000</v>
-      </c>
-      <c r="B22" s="24">
-        <v>4</v>
-      </c>
-      <c r="C22" s="26">
-        <v>44000</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>20</v>
-      </c>
+      <c r="A22" s="26"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="28"/>
     </row>
     <row r="23" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A23" s="24">
-        <v>44000</v>
-      </c>
-      <c r="B23" s="24">
-        <v>0</v>
-      </c>
-      <c r="C23" s="24">
-        <v>44000</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>21</v>
-      </c>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A24" s="26">
-        <v>44000</v>
-      </c>
-      <c r="B24" s="24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="26">
-        <v>44000</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>20</v>
-      </c>
+      <c r="A24" s="26"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A25" s="25">
-        <v>44000</v>
-      </c>
-      <c r="B25" s="25">
-        <v>11</v>
-      </c>
-      <c r="C25" s="25">
-        <v>44000</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>20</v>
-      </c>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A26" s="28">
-        <v>44000</v>
-      </c>
-      <c r="B26" s="25">
-        <v>10</v>
-      </c>
-      <c r="C26" s="28">
-        <v>44000</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>20</v>
-      </c>
+      <c r="A26" s="28"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="28"/>
     </row>
   </sheetData>
@@ -2410,7 +2327,7 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2455,7 +2372,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="16" t="s">
@@ -2473,7 +2390,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="16" t="s">
@@ -2491,7 +2408,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="16" t="s">
@@ -2509,7 +2426,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="16" t="s">
@@ -2527,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="16" t="s">
@@ -2545,7 +2462,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="17" t="s">
@@ -2563,7 +2480,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="12" t="s">
@@ -2581,7 +2498,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="17" t="s">
